--- a/biology/Zoologie/Dicée_à_ventre_orange/Dicée_à_ventre_orange.xlsx
+++ b/biology/Zoologie/Dicée_à_ventre_orange/Dicée_à_ventre_orange.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dic%C3%A9e_%C3%A0_ventre_orange</t>
+          <t>Dicée_à_ventre_orange</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dicaeum trigonostigma
 Le Dicée à ventre orange (Dicaeum trigonostigma) est une espèce de passereau placée dans la famille des Dicaeidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dic%C3%A9e_%C3%A0_ventre_orange</t>
+          <t>Dicée_à_ventre_orange</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le dicée à ventre orange mesure jusqu'à 9 cm[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le dicée à ventre orange mesure jusqu'à 9 cm. 
 Son plumage est bleu et son ventre est orange.
 Il mange des fruits, des baies, des graines, du pollen et de minuscules insectes. Il boit du nectar de fleurs.
 Il vit seul ou en couple.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dic%C3%A9e_%C3%A0_ventre_orange</t>
+          <t>Dicée_à_ventre_orange</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On le trouve au Bangladesh, Birmanie, Brunei, Inde, Indonésie, Malaisie,  Philippines, Singapour, Indonésie et Thaïlande.
 </t>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dic%C3%A9e_%C3%A0_ventre_orange</t>
+          <t>Dicée_à_ventre_orange</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,10 +593,12 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il habite les forêts humides tropicales et subtropicales sempervirentes et les mangroves mais aussi les clairières et les jardins.
-On le rencontre dans le feuillage des arbres à tous les niveaux, mais de préférence en haut de la canopée[2].
+On le rencontre dans le feuillage des arbres à tous les niveaux, mais de préférence en haut de la canopée.
 </t>
         </is>
       </c>
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dic%C3%A9e_%C3%A0_ventre_orange</t>
+          <t>Dicée_à_ventre_orange</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,7 +627,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Selon Peterson
 Dicaeum trigonostigma assimile Bourns &amp; Worcester 1894
